--- a/DataTakeOnTesting.xlsx
+++ b/DataTakeOnTesting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Test name</t>
   </si>
@@ -87,6 +87,36 @@
   <si>
     <t>select count(pcallocation.pcid) from pcallocation 
 where pcallocation.pcrole = 'Student';</t>
+  </si>
+  <si>
+    <t>Quanity &gt;= 0 Constraint</t>
+  </si>
+  <si>
+    <t>The 'quanity' values are checked inside the 'EquipmentAllocation' table to ensure they match the constraint</t>
+  </si>
+  <si>
+    <t>select * from equipmentallocation where quantity &lt; 0;</t>
+  </si>
+  <si>
+    <t>Test data is inserted to check the constraint is correct</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>insert into equipmentallocation(locationID,equipmentid,quantity)
+values(110001,111005,-52);</t>
+  </si>
+  <si>
+    <t>Error check 
+constraint violated</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Ensure the data is consistant
+and matches the source data</t>
   </si>
 </sst>
 </file>
@@ -134,11 +164,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,105 +479,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="53.7109375" customWidth="1"/>
-    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="3" max="3" width="47" style="2" customWidth="1"/>
     <col min="4" max="4" width="59.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>96</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2">
+        <v>630</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>630</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DataTakeOnTesting.xlsx
+++ b/DataTakeOnTesting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Test name</t>
   </si>
@@ -117,6 +117,19 @@
   <si>
     <t>Ensure the data is consistant
 and matches the source data</t>
+  </si>
+  <si>
+    <t>Staff workphoneno total</t>
+  </si>
+  <si>
+    <t>The sum of all workphone numbers is compared to the sum
+ of the source data phone numbers this ensures the data is the same</t>
+  </si>
+  <si>
+    <t>Expected 118277</t>
+  </si>
+  <si>
+    <t>select sum(staff.workphoneno) from staff;</t>
   </si>
 </sst>
 </file>
@@ -479,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,37 +597,54 @@
         <v>630</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2">
+        <v>118277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/DataTakeOnTesting.xlsx
+++ b/DataTakeOnTesting.xlsx
@@ -122,14 +122,14 @@
     <t>Staff workphoneno total</t>
   </si>
   <si>
+    <t>Expected 118277</t>
+  </si>
+  <si>
+    <t>select sum(staff.workphoneno) from staff;</t>
+  </si>
+  <si>
     <t>The sum of all workphone numbers is compared to the sum
- of the source data phone numbers this ensures the data is the same</t>
-  </si>
-  <si>
-    <t>Expected 118277</t>
-  </si>
-  <si>
-    <t>select sum(staff.workphoneno) from staff;</t>
+of the source data phone numbers this ensures the data is the same</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,13 +602,13 @@
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E6" s="2">
         <v>118277</v>

--- a/DataTakeOnTesting.xlsx
+++ b/DataTakeOnTesting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Test name</t>
   </si>
@@ -89,9 +89,6 @@
 where pcallocation.pcrole = 'Student';</t>
   </si>
   <si>
-    <t>Quanity &gt;= 0 Constraint</t>
-  </si>
-  <si>
     <t>The 'quanity' values are checked inside the 'EquipmentAllocation' table to ensure they match the constraint</t>
   </si>
   <si>
@@ -130,6 +127,84 @@
   <si>
     <t>The sum of all workphone numbers is compared to the sum
 of the source data phone numbers this ensures the data is the same</t>
+  </si>
+  <si>
+    <t>Event organiser/staffid</t>
+  </si>
+  <si>
+    <t>The event organiser and corrisponding event id are checked
+against the staff table to ensure the data is the same</t>
+  </si>
+  <si>
+    <t>select event.organiser, event.staffid, staff.staffid, staff.name from event inner join staff on event.staffid = staff.staffid;</t>
+  </si>
+  <si>
+    <t>The data matched</t>
+  </si>
+  <si>
+    <t>Matching data</t>
+  </si>
+  <si>
+    <t>Quantity &gt;= 0 Constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity range </t>
+  </si>
+  <si>
+    <t>The Largest and smallest quantity value is compared
+between the data</t>
+  </si>
+  <si>
+    <t>Largest: 70
+Smallest:1</t>
+  </si>
+  <si>
+    <t>select min(equipmentallocation.quantity),
+max(equipmentallocation.quantity) from equipmentallocation;</t>
+  </si>
+  <si>
+    <t>Largets: 70
+Smallest: 1</t>
+  </si>
+  <si>
+    <t>Further tests the correctness
+ of the data</t>
+  </si>
+  <si>
+    <t>The roomno for allocated equipment in the source data is checked against locationid in the table to ensure the Forrign key is correct</t>
+  </si>
+  <si>
+    <t>Correct data and Roomno count of 297</t>
+  </si>
+  <si>
+    <t>Devon Equipment allocation 
+roomno</t>
+  </si>
+  <si>
+    <t>select equipment.name,equipmentallocation.equipmentid,
+equipmentallocation.locationid, location.locationid, location.roomno from equipmentallocation inner join location on equipmentallocation.locationid = location.locationid inner join equipment on equipmentallocation.equipmentid = equipment.equipmentid where location.roomno != ' ' and location.buildingid = 1003;</t>
+  </si>
+  <si>
+    <t>Roomno count: 297
+Matching data</t>
+  </si>
+  <si>
+    <t>Checks whether the location FK is correctly established and implimented</t>
+  </si>
+  <si>
+    <t>Allardyce Equipment allocation 
+roomno</t>
+  </si>
+  <si>
+    <t>select equipment.name,equipmentallocation.equipmentid,
+equipmentallocation.locationid, location.locationid, location.roomno from equipmentallocation inner join location on equipmentallocation.locationid = location.locationid inner join equipment on equipmentallocation.equipmentid = equipment.equipmentid where location.roomno != ' ' and location.buildingid = 1000;</t>
+  </si>
+  <si>
+    <t>Roomno count: 84
+Matching data</t>
+  </si>
+  <si>
+    <t>Correct data and Roomno count of 84</t>
   </si>
 </sst>
 </file>
@@ -492,11 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -599,53 +674,150 @@
     </row>
     <row r="6" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="2">
         <v>118277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/DataTakeOnTesting.xlsx
+++ b/DataTakeOnTesting.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>Test name</t>
   </si>
@@ -205,6 +205,27 @@
   </si>
   <si>
     <t>Correct data and Roomno count of 84</t>
+  </si>
+  <si>
+    <t>Checking to see if all of the values inside of a column are unique (for the purpose of validating primary keys)</t>
+  </si>
+  <si>
+    <t>Run a script that checks each value and counts how many identical values are inside of the column, the script then returns the count of each value that it found</t>
+  </si>
+  <si>
+    <t>SELECT PCID, COUNT(PCID) 
+FROM PCALLOCATION
+GROUP BY PCID
+HAVING COUNT(PCID) &gt; 1;</t>
+  </si>
+  <si>
+    <t>For the purpose of primary keys, the expected result of this test would be for every value to be unique(no value having COUNT &gt; 1). For the purpose of this test, the PCALLOCATION table will be used for the PCID column</t>
+  </si>
+  <si>
+    <t>No value having COUNT &gt; 1</t>
+  </si>
+  <si>
+    <t>Checks to see that every value used for a column is unique</t>
   </si>
 </sst>
 </file>
@@ -567,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,6 +839,26 @@
       </c>
       <c r="F13" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/DataTakeOnTesting.xlsx
+++ b/DataTakeOnTesting.xlsx
@@ -590,9 +590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
